--- a/en/downloads/data-excel/15.1.2.xlsx
+++ b/en/downloads/data-excel/15.1.2.xlsx
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -204,6 +204,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,7 +547,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -555,7 +558,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -583,8 +586,14 @@
       <c r="I3" s="12">
         <v>2018</v>
       </c>
+      <c r="J3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -612,8 +621,14 @@
       <c r="I4" s="14">
         <v>7.38</v>
       </c>
+      <c r="J4" s="15">
+        <v>6.18</v>
+      </c>
+      <c r="K4" s="15">
+        <v>6.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -624,7 +639,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -635,7 +650,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>

--- a/en/downloads/data-excel/15.1.2.xlsx
+++ b/en/downloads/data-excel/15.1.2.xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -558,7 +558,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -592,8 +592,11 @@
       <c r="K3" s="12">
         <v>2020</v>
       </c>
+      <c r="L3" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="K4" s="15">
         <v>6.18</v>
       </c>
+      <c r="L4" s="15">
+        <v>6.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -639,7 +645,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -650,7 +656,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>

--- a/en/downloads/data-excel/15.1.2.xlsx
+++ b/en/downloads/data-excel/15.1.2.xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -558,7 +558,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -595,8 +595,14 @@
       <c r="L3" s="12">
         <v>2020</v>
       </c>
+      <c r="M3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -633,8 +639,14 @@
       <c r="L4" s="15">
         <v>6.18</v>
       </c>
+      <c r="M4" s="15">
+        <v>6.18</v>
+      </c>
+      <c r="N4" s="15">
+        <v>6.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -645,7 +657,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -656,7 +668,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>

--- a/en/downloads/data-excel/15.1.2.xlsx
+++ b/en/downloads/data-excel/15.1.2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -41,13 +41,22 @@
   </si>
   <si>
     <t>Proportion of important sites for terrestrial and freshwater biodiversity that are covered by protected areas, by ecosystem type</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +126,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -208,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,23 +534,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,10 +563,16 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -558,106 +580,112 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D4" s="12">
         <v>2013</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="12">
         <v>2014</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="12">
         <v>2015</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G4" s="12">
         <v>2016</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H4" s="12">
         <v>2017</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I4" s="12">
         <v>2018</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J4" s="12">
         <v>2019</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K4" s="12">
         <v>2020</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L4" s="12">
         <v>2020</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M4" s="12">
         <v>2021</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N4" s="12">
         <v>2022</v>
       </c>
+      <c r="O4" s="12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:15" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D5" s="14">
         <v>6.01</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="14">
         <v>6.01</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F5" s="14">
         <v>6.01</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G5" s="14">
         <v>7.3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H5" s="14">
         <v>7.38</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I5" s="14">
         <v>7.38</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J5" s="15">
         <v>6.18</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K5" s="15">
         <v>6.18</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L5" s="15">
         <v>6.18</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M5" s="15">
         <v>6.18</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N5" s="15">
         <v>6.18</v>
       </c>
+      <c r="O5" s="15">
+        <v>6.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -668,7 +696,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -679,6 +707,17 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
